--- a/API Networks Mapping Sheet.xlsx
+++ b/API Networks Mapping Sheet.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8EFEDE-1F82-4EB5-AD81-39F2A240F4B6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6476C71C-B507-4341-A018-06AEEA1A0A4E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Customers" sheetId="1" r:id="rId1"/>
-    <sheet name="Connection Details" sheetId="3" r:id="rId2"/>
+    <sheet name="Products" sheetId="4" r:id="rId2"/>
+    <sheet name="Connection Details" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,13 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="112">
-  <si>
-    <t>BAPI_CUSTOMER_GETDETAIL2</t>
-  </si>
-  <si>
-    <t>DEBMAS</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="126">
   <si>
     <t>City</t>
   </si>
@@ -47,39 +42,6 @@
     <t>Country</t>
   </si>
   <si>
-    <t>CUSTOMERADDRESS-NAME</t>
-  </si>
-  <si>
-    <t>CUSTOMERADDRESS-CITY</t>
-  </si>
-  <si>
-    <t>CUSTOMERADDRESS-POSTL_CODE</t>
-  </si>
-  <si>
-    <t>CUSTOMERADDRESS-STREET</t>
-  </si>
-  <si>
-    <t>CUSTOMERADDRESS-COUNTRY</t>
-  </si>
-  <si>
-    <t>E1KNA1M-NAME1</t>
-  </si>
-  <si>
-    <t>E1KNA1M-ORT01</t>
-  </si>
-  <si>
-    <t>E1KNA1M-TELF1</t>
-  </si>
-  <si>
-    <t>E1KNA1M-STRAS</t>
-  </si>
-  <si>
-    <t>E1KNA1M-PSTLZ</t>
-  </si>
-  <si>
-    <t>E1KNA1M-LAND1</t>
-  </si>
-  <si>
     <t>SAP EH7</t>
   </si>
   <si>
@@ -347,29 +309,110 @@
     <t>Odata Service</t>
   </si>
   <si>
-    <t>SAPCustomers</t>
-  </si>
-  <si>
     <t>SAP BAPI</t>
   </si>
   <si>
-    <t>SAP IDOC</t>
-  </si>
-  <si>
     <t>Telephone</t>
   </si>
   <si>
-    <t>CUSTOMERADDRESS-TELEPHONE</t>
-  </si>
-  <si>
     <t>CUSTOMERNO</t>
+  </si>
+  <si>
+    <t>Customers</t>
+  </si>
+  <si>
+    <t>CustomerID</t>
+  </si>
+  <si>
+    <t>SearchTerm</t>
+  </si>
+  <si>
+    <t>TransportationZone</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>CustomerName2</t>
+  </si>
+  <si>
+    <t>BAPI_CUSTOMER_CREATEFROMDATA1</t>
+  </si>
+  <si>
+    <t>PI_PERSONALDATA-FIRSTNAME</t>
+  </si>
+  <si>
+    <t>PI_PERSONALDATA-CITY</t>
+  </si>
+  <si>
+    <t>PI_PERSONALDATA-STRAS</t>
+  </si>
+  <si>
+    <t>PI_PERSONALDATA-POSTL_COD1</t>
+  </si>
+  <si>
+    <t>PI_PERSONALDATA-COUNTRY</t>
+  </si>
+  <si>
+    <t>PI_PERSONALDATA-TEL1_NUMBR</t>
+  </si>
+  <si>
+    <t>PI_PERSONALDATA-LANGU_P</t>
+  </si>
+  <si>
+    <t>PI_PERSONALDATA-LASTNAME</t>
+  </si>
+  <si>
+    <t>PI_PERSONALDATA-CURRENCY</t>
+  </si>
+  <si>
+    <t>PI_PERSONALDATA-SECONDNAME</t>
+  </si>
+  <si>
+    <t>Materials</t>
+  </si>
+  <si>
+    <t>ProductCode                 </t>
+  </si>
+  <si>
+    <t>MaterialNumber</t>
+  </si>
+  <si>
+    <t>IsActive                          </t>
+  </si>
+  <si>
+    <t>default to 1 for active</t>
+  </si>
+  <si>
+    <t>ExternalDataSourceID</t>
+  </si>
+  <si>
+    <t>MaterialDescription</t>
+  </si>
+  <si>
+    <t>BaseUoM</t>
+  </si>
+  <si>
+    <t>MaterialGroup</t>
+  </si>
+  <si>
+    <t>Name  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StockKeepingUnit     </t>
+  </si>
+  <si>
+    <t>Family                        </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -385,19 +428,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -419,8 +463,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -701,498 +747,642 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.1796875" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="C22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>40</v>
       </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="C23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>41</v>
       </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="C24" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="B25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="C26" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="B27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="C28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="C29" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="C30" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="C31" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="C32" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="C33" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="C34" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="C35" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="C36" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="C37" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
         <v>55</v>
       </c>
-      <c r="B24" t="s">
-        <v>109</v>
-      </c>
-      <c r="C24" s="5" t="s">
+      <c r="C38" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>67</v>
+      </c>
+      <c r="C50" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>70</v>
+      </c>
+      <c r="C53" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>72</v>
+      </c>
+      <c r="C55" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>74</v>
+      </c>
+      <c r="C57" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>75</v>
+      </c>
+      <c r="C58" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>76</v>
+      </c>
+      <c r="C59" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>77</v>
+      </c>
+      <c r="C60" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>78</v>
+      </c>
+      <c r="C61" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>79</v>
+      </c>
+      <c r="C62" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>80</v>
+      </c>
+      <c r="C63" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>81</v>
+      </c>
+      <c r="C64" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>82</v>
+      </c>
+      <c r="C65" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>83</v>
+      </c>
+      <c r="C66" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>84</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C67" t="s">
+        <v>95</v>
+      </c>
+      <c r="D67" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>85</v>
+      </c>
+      <c r="B68" s="4"/>
+      <c r="D68" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>86</v>
+      </c>
+      <c r="B69" s="4"/>
+      <c r="D69" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B70" t="s">
+        <v>98</v>
+      </c>
+      <c r="C70" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B71" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B72" t="s">
+        <v>100</v>
+      </c>
+      <c r="C72" t="s">
         <v>110</v>
       </c>
-      <c r="D24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-    </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-    </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-    </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>59</v>
-      </c>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" s="4"/>
-    </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>62</v>
-      </c>
-      <c r="D31" s="4"/>
-    </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>63</v>
-      </c>
-      <c r="D32" s="4"/>
-    </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>64</v>
-      </c>
-      <c r="D33" s="4"/>
-    </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>65</v>
-      </c>
-      <c r="D34" s="4"/>
-    </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>66</v>
-      </c>
-      <c r="D35" s="4"/>
-    </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>67</v>
-      </c>
-      <c r="D36" s="4"/>
-    </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>68</v>
-      </c>
-      <c r="D37" s="4"/>
-    </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>69</v>
-      </c>
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>70</v>
-      </c>
-      <c r="D39" s="4"/>
-    </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>71</v>
-      </c>
-      <c r="D40" s="4"/>
-    </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>72</v>
-      </c>
-      <c r="D41" s="4"/>
-    </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>73</v>
-      </c>
-      <c r="D42" s="4"/>
-    </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>74</v>
-      </c>
-      <c r="D43" s="4"/>
-    </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>75</v>
-      </c>
-      <c r="D44" s="4"/>
-    </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>76</v>
-      </c>
-      <c r="D45" s="4"/>
-    </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>77</v>
-      </c>
-      <c r="D46" s="4"/>
-    </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>78</v>
-      </c>
-      <c r="D47" s="4"/>
-    </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>79</v>
-      </c>
-      <c r="D48" s="4"/>
-    </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>80</v>
-      </c>
-      <c r="D49" s="4"/>
-    </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>81</v>
-      </c>
-      <c r="D50" s="4"/>
-    </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>82</v>
-      </c>
-      <c r="D51" s="4"/>
-    </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>83</v>
-      </c>
-      <c r="D52" s="4"/>
-    </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>84</v>
-      </c>
-      <c r="D53" s="4"/>
-    </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>85</v>
-      </c>
-      <c r="D54" s="4"/>
-    </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>86</v>
-      </c>
-      <c r="D55" s="4"/>
-    </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>87</v>
-      </c>
-      <c r="D56" s="4"/>
-    </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>88</v>
-      </c>
-      <c r="D57" s="4"/>
-    </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>89</v>
-      </c>
-      <c r="D58" s="4"/>
-    </row>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>90</v>
-      </c>
-      <c r="D59" s="4"/>
-    </row>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>91</v>
-      </c>
-      <c r="D60" s="4"/>
-    </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>92</v>
-      </c>
-      <c r="D61" s="4"/>
-    </row>
-    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>93</v>
-      </c>
-      <c r="D62" s="4"/>
-    </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>94</v>
-      </c>
-      <c r="D63" s="4"/>
-    </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>95</v>
-      </c>
-      <c r="D64" s="4"/>
-    </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>96</v>
-      </c>
-      <c r="D65" s="4"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>97</v>
-      </c>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D66" s="5"/>
-      <c r="E66" t="s">
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B73" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>98</v>
-      </c>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" t="s">
+      <c r="C73" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B74" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>99</v>
-      </c>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" t="s">
-        <v>103</v>
+      <c r="C74" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1202,6 +1392,93 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5238EDBA-53C1-4033-BB48-C62738CE82E3}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82F64BE8-7E35-426D-9A3E-8BD90AC61AD8}">
   <dimension ref="A1:B9"/>
   <sheetViews>
@@ -1217,44 +1494,44 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B6" s="3">
         <v>800</v>
@@ -1262,26 +1539,26 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
